--- a/data/basicData/machineList.xlsx
+++ b/data/basicData/machineList.xlsx
@@ -16,114 +16,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
   <si>
     <t>LY-1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LY-2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LY-3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LY-4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LY-5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1号流延机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2号流延机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3号流延机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4号流延机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5号流延机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>流延机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FQ-1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FQ-2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FQ-3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1号分切机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3号分切机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>YS-1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>YS-2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>YS-3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>分切机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>印刷机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FQ-4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FQ-5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5号分切机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>设备类别</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>购买日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>工作效率</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>machineCode</t>
@@ -142,59 +142,59 @@
   </si>
   <si>
     <t>preferValue</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>内部编号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>internalCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>保养周期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>保养用时</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>maintenancePeriod</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>maintenanceHour</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>美国戴维斯机械</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>台湾增昌机械设备</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>日本东洋</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>日本千户</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>台湾神农</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 设备名称 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 设备编号 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -230,7 +230,7 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2001-8-17</t>
@@ -252,7 +252,7 @@
   </si>
   <si>
     <t>每小时产出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -268,47 +268,47 @@
       </rPr>
       <t>utputAnHour</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>320</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h008</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h009</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h010</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h011</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h012</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h013</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h014</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h016</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h017</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -324,7 +324,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -340,11 +340,11 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h015</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -360,7 +360,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -376,110 +376,110 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>300</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>920</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>800</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>350</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>90</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>95</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>87</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>980</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>换产准备时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>换班准备时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>prepareTimeNewProduct</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>prepareTimeShiftTeam</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0.5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1.5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6号中试机</t>
   </si>
   <si>
     <t>7号吹膜机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1号印刷机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2号印刷机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3号印刷机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4号印刷机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5号柔印机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6号分切机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7号分切机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所属部门</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>workshop</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>制造二部</t>
@@ -489,353 +489,164 @@
   </si>
   <si>
     <t>1号打包机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2号打包机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1号结粒机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>打包机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>造粒机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2005-10-24</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h018</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h019</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h020</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h021</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h022</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h023</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h024</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h025</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h026</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DB-1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DB-2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ZL-1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ZL-2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2号压片机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h002</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h003</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h004</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h005</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h006</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>h007</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L-2</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L-3</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L-4</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L-5</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L-6</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L-7</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1号投料机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号投料机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号投料机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号投料机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5号投料机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>6号投料机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>7号投料机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>流延机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>h027</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>h028</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DB-3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DB-4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3号打包机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4号打包机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>h029</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>h030</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>h031</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>h032</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>h033</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ZL-3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ZL-4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ZL-5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3号压片机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4号压片机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5号压片机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,49 +741,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,14 +1196,14 @@
       <c r="A3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>139</v>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>41</v>
@@ -1429,11 +1237,11 @@
       <c r="A4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>133</v>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -1470,11 +1278,11 @@
       <c r="A5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>134</v>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -1511,11 +1319,11 @@
       <c r="A6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>135</v>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -1552,11 +1360,11 @@
       <c r="A7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>136</v>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -1593,11 +1401,11 @@
       <c r="A8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>137</v>
+      <c r="B8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -1634,11 +1442,11 @@
       <c r="A9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>138</v>
+      <c r="B9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -1676,34 +1484,34 @@
         <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J10" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7">
         <v>12</v>
@@ -1717,40 +1525,40 @@
         <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J11" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K11" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7">
         <v>12</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1758,157 +1566,157 @@
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J12" s="7">
+        <v>100</v>
+      </c>
+      <c r="K12" s="7">
         <v>60</v>
-      </c>
-      <c r="K12" s="7">
-        <v>120</v>
       </c>
       <c r="L12" s="7">
         <v>12</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
+      <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="J13" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7">
         <v>12</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
+      <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J14" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7">
         <v>12</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>85</v>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J15" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7">
         <v>12</v>
@@ -1921,41 +1729,41 @@
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>86</v>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J16" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7">
         <v>12</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1963,28 +1771,28 @@
         <v>67</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J17" s="7">
         <v>100</v>
@@ -2004,28 +1812,28 @@
         <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J18" s="7">
         <v>100</v>
@@ -2037,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -2045,28 +1853,28 @@
         <v>64</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J19" s="7">
         <v>100</v>
@@ -2085,121 +1893,79 @@
       <c r="A20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="7">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7">
-        <v>60</v>
-      </c>
-      <c r="L20" s="7">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="7">
-        <v>100</v>
-      </c>
-      <c r="K21" s="7">
-        <v>60</v>
-      </c>
-      <c r="L21" s="7">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="7">
-        <v>100</v>
-      </c>
-      <c r="K22" s="7">
-        <v>60</v>
-      </c>
-      <c r="L22" s="7">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="11" t="s">
         <v>97</v>
       </c>
@@ -2208,121 +1974,79 @@
       <c r="A23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="7">
-        <v>100</v>
-      </c>
-      <c r="K23" s="7">
-        <v>60</v>
-      </c>
-      <c r="L23" s="7">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="7">
-        <v>100</v>
-      </c>
-      <c r="K24" s="7">
-        <v>60</v>
-      </c>
-      <c r="L24" s="7">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="7">
-        <v>100</v>
-      </c>
-      <c r="K25" s="7">
-        <v>60</v>
-      </c>
-      <c r="L25" s="7">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="11" t="s">
         <v>97</v>
       </c>
@@ -2331,41 +2055,27 @@
       <c r="A26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="7">
-        <v>100</v>
-      </c>
-      <c r="K26" s="7">
-        <v>60</v>
-      </c>
-      <c r="L26" s="7">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -2373,13 +2083,13 @@
         <v>111</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
@@ -2400,13 +2110,13 @@
         <v>112</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
@@ -2422,197 +2132,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2626,7 +2147,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2639,7 +2160,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>